--- a/PlanillaPropuesta.xlsx
+++ b/PlanillaPropuesta.xlsx
@@ -16,10 +16,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>anin only anin</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ingresar número unico para cada registro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -27,12 +41,207 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Descripción detallada del link que investigaste
+          <t>Nombre del responsable del registro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describir de manera general el problema, por ejemplo, construir un diccionario de datos o estudiar Python</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comentar las principales dificultades, como falta de conocimiento o tarea demasiado larga.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Escribir solo el porcentaje, por ejemplo</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fecha en que</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> creen </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>que la tarea finalizará</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>La evidencia debe estar online, si crean un documento debe estar en drive y escriben la url compartida publica o hacen un comit con el archivo en este repositorio o escribir el nombre del repositorio donde se hizo pull request o la aplicación subida en algún servidor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Todas las URL de las páginas que consultaron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Fecha en que estan escribiendo este reporte, todos los días deben tener al menos un registro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Comentarios generales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No importa que se repita</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Si no ha terminado, escriban Sin Finalizar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Id del archivo Tarea asociada a la tarea que se esta realizando</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ingresa todos los formatos que hay disponibles para descargar este archivo. Se deben ingresar separados por comas.
 	-Data Intelligence</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="R1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Si hay que navegar la página, escribe las indicaciones. Por ejemplo: en la parte derecha de la pantalla hay un menú, hay que hacer clic en la opción "mostrar reporte" luego elegir el 3ro de la lista.
+	-Data Intelligence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -45,73 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Escribe 10 palabras separadas por comas (,) que describan la información del link.
-	-Data Intelligence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Tamaño del Archivo en números, SIN LA UNIDAD. Ejemplo: 142. 
-La unidad (Kb, Mb, Gb) la eliges en la siguiente columna.
-	-Data Intelligence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Ingresa todos los formatos que hay disponibles para descargar este archivo. Se deben ingresar separados por comas.
-	-Data Intelligence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Si hay que navegar la página, escribe las indicaciones. Por ejemplo: en la parte derecha de la pantalla hay un menú, hay que hacer clic en la opción "mostrar reporte" luego elegir el 3ro de la lista.
-	-Data Intelligence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>18- Fecha DD/MM/AAAA en que estoy consultando los datos (hoy)
-	-Data Intelligence</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -124,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -137,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -155,55 +298,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1- Id</t>
-  </si>
-  <si>
-    <t>13a- Volumetría</t>
-  </si>
-  <si>
-    <t>13b- UNIDAD de Volumetría</t>
-  </si>
-  <si>
-    <t>14- Formatos Disponibles: .txt,.csv,.rtf,.xslx,.xsl,.pdf,.xml,.html,.rar,.zip,.ods, Otro</t>
-  </si>
-  <si>
-    <t>15- ¿El link conduce directo a la descarga?</t>
-  </si>
-  <si>
-    <t>16a- ¿El link es directo o hay que navegar la página?</t>
-  </si>
-  <si>
-    <t>16b-Ruta de Navegación de la Página</t>
-  </si>
-  <si>
-    <t>17- Enlace real de descarga</t>
-  </si>
-  <si>
-    <t>18- Fecha DD/MM/AAAA en que estoy consultando los datos</t>
-  </si>
-  <si>
-    <t>19a- Fecha DESDE DD/MM/AAAA de los hechos de los datos</t>
-  </si>
-  <si>
-    <t>19b- Fecha HASTA 
-DD/MM/AAAA de los hechos de los datos</t>
-  </si>
-  <si>
-    <t>20- Nombre del investigador</t>
-  </si>
-  <si>
-    <t>21- Categoría</t>
-  </si>
-  <si>
-    <t>22- Sub- Categoría</t>
-  </si>
-  <si>
-    <t>23- Observaciones</t>
-  </si>
-  <si>
-    <t>BD</t>
   </si>
   <si>
     <t xml:space="preserve">2- Nombre </t>
@@ -238,6 +335,9 @@
   <si>
     <t>12- Fecha DD/MM/AAAA termino de la actividad</t>
   </si>
+  <si>
+    <t>13. Id de la tarea asociada</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +347,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,6 +396,26 @@
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -426,6 +546,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:AC1239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -670,88 +793,60 @@
     <col min="27" max="27" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="57.6">
+    <row r="1" spans="1:29" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="5"/>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
     </row>
@@ -23300,7 +23395,7 @@
       <c r="V1183" s="31"/>
       <c r="W1183" s="19"/>
     </row>
-    <row r="1184" spans="1:27">
+    <row r="1184" spans="1:27" ht="13.2">
       <c r="A1184" s="19"/>
       <c r="E1184" s="7"/>
       <c r="I1184" s="19"/>
@@ -23315,7 +23410,7 @@
       <c r="V1184" s="31"/>
       <c r="W1184" s="19"/>
     </row>
-    <row r="1185" spans="1:23">
+    <row r="1185" spans="1:23" ht="13.2">
       <c r="A1185" s="19"/>
       <c r="E1185" s="7"/>
       <c r="I1185" s="19"/>
@@ -23330,7 +23425,7 @@
       <c r="V1185" s="31"/>
       <c r="W1185" s="19"/>
     </row>
-    <row r="1186" spans="1:23">
+    <row r="1186" spans="1:23" ht="13.2">
       <c r="A1186" s="19"/>
       <c r="E1186" s="7"/>
       <c r="I1186" s="19"/>
@@ -23345,7 +23440,7 @@
       <c r="V1186" s="31"/>
       <c r="W1186" s="19"/>
     </row>
-    <row r="1187" spans="1:23">
+    <row r="1187" spans="1:23" ht="13.2">
       <c r="A1187" s="19"/>
       <c r="E1187" s="7"/>
       <c r="I1187" s="19"/>
@@ -23360,7 +23455,7 @@
       <c r="V1187" s="31"/>
       <c r="W1187" s="19"/>
     </row>
-    <row r="1188" spans="1:23">
+    <row r="1188" spans="1:23" ht="13.2">
       <c r="A1188" s="19"/>
       <c r="E1188" s="7"/>
       <c r="I1188" s="19"/>
@@ -23375,7 +23470,7 @@
       <c r="V1188" s="31"/>
       <c r="W1188" s="19"/>
     </row>
-    <row r="1189" spans="1:23">
+    <row r="1189" spans="1:23" ht="13.2">
       <c r="A1189" s="19"/>
       <c r="E1189" s="7"/>
       <c r="I1189" s="19"/>
@@ -23390,7 +23485,7 @@
       <c r="V1189" s="31"/>
       <c r="W1189" s="19"/>
     </row>
-    <row r="1190" spans="1:23">
+    <row r="1190" spans="1:23" ht="13.2">
       <c r="A1190" s="19"/>
       <c r="E1190" s="7"/>
       <c r="I1190" s="19"/>
@@ -23405,7 +23500,7 @@
       <c r="V1190" s="31"/>
       <c r="W1190" s="19"/>
     </row>
-    <row r="1191" spans="1:23">
+    <row r="1191" spans="1:23" ht="13.2">
       <c r="A1191" s="19"/>
       <c r="E1191" s="7"/>
       <c r="I1191" s="19"/>
@@ -23420,7 +23515,7 @@
       <c r="V1191" s="31"/>
       <c r="W1191" s="19"/>
     </row>
-    <row r="1192" spans="1:23">
+    <row r="1192" spans="1:23" ht="13.2">
       <c r="A1192" s="19"/>
       <c r="E1192" s="7"/>
       <c r="I1192" s="19"/>
@@ -23435,7 +23530,7 @@
       <c r="V1192" s="31"/>
       <c r="W1192" s="19"/>
     </row>
-    <row r="1193" spans="1:23">
+    <row r="1193" spans="1:23" ht="13.2">
       <c r="A1193" s="19"/>
       <c r="E1193" s="7"/>
       <c r="I1193" s="19"/>
@@ -23450,7 +23545,7 @@
       <c r="V1193" s="31"/>
       <c r="W1193" s="19"/>
     </row>
-    <row r="1194" spans="1:23">
+    <row r="1194" spans="1:23" ht="13.2">
       <c r="A1194" s="19"/>
       <c r="E1194" s="7"/>
       <c r="I1194" s="19"/>
@@ -23465,7 +23560,7 @@
       <c r="V1194" s="31"/>
       <c r="W1194" s="19"/>
     </row>
-    <row r="1195" spans="1:23">
+    <row r="1195" spans="1:23" ht="13.2">
       <c r="A1195" s="19"/>
       <c r="E1195" s="7"/>
       <c r="I1195" s="19"/>
@@ -23480,7 +23575,7 @@
       <c r="V1195" s="31"/>
       <c r="W1195" s="19"/>
     </row>
-    <row r="1196" spans="1:23">
+    <row r="1196" spans="1:23" ht="13.2">
       <c r="A1196" s="19"/>
       <c r="E1196" s="7"/>
       <c r="I1196" s="19"/>
@@ -23495,7 +23590,7 @@
       <c r="V1196" s="31"/>
       <c r="W1196" s="19"/>
     </row>
-    <row r="1197" spans="1:23">
+    <row r="1197" spans="1:23" ht="13.2">
       <c r="A1197" s="19"/>
       <c r="E1197" s="7"/>
       <c r="I1197" s="19"/>
@@ -23510,7 +23605,7 @@
       <c r="V1197" s="31"/>
       <c r="W1197" s="19"/>
     </row>
-    <row r="1198" spans="1:23">
+    <row r="1198" spans="1:23" ht="13.2">
       <c r="A1198" s="19"/>
       <c r="E1198" s="7"/>
       <c r="I1198" s="19"/>
@@ -23525,7 +23620,7 @@
       <c r="V1198" s="31"/>
       <c r="W1198" s="19"/>
     </row>
-    <row r="1199" spans="1:23">
+    <row r="1199" spans="1:23" ht="13.2">
       <c r="A1199" s="19"/>
       <c r="E1199" s="7"/>
       <c r="I1199" s="19"/>
@@ -23540,7 +23635,7 @@
       <c r="V1199" s="31"/>
       <c r="W1199" s="19"/>
     </row>
-    <row r="1200" spans="1:23">
+    <row r="1200" spans="1:23" ht="13.2">
       <c r="A1200" s="19"/>
       <c r="E1200" s="7"/>
       <c r="I1200" s="19"/>
@@ -23555,7 +23650,7 @@
       <c r="V1200" s="31"/>
       <c r="W1200" s="19"/>
     </row>
-    <row r="1201" spans="1:23">
+    <row r="1201" spans="1:23" ht="13.2">
       <c r="A1201" s="19"/>
       <c r="E1201" s="7"/>
       <c r="I1201" s="19"/>
@@ -23570,7 +23665,7 @@
       <c r="V1201" s="31"/>
       <c r="W1201" s="19"/>
     </row>
-    <row r="1202" spans="1:23">
+    <row r="1202" spans="1:23" ht="13.2">
       <c r="A1202" s="19"/>
       <c r="E1202" s="7"/>
       <c r="I1202" s="19"/>
@@ -23585,7 +23680,7 @@
       <c r="V1202" s="31"/>
       <c r="W1202" s="19"/>
     </row>
-    <row r="1203" spans="1:23">
+    <row r="1203" spans="1:23" ht="13.2">
       <c r="A1203" s="19"/>
       <c r="E1203" s="7"/>
       <c r="I1203" s="19"/>
@@ -23600,7 +23695,7 @@
       <c r="V1203" s="31"/>
       <c r="W1203" s="19"/>
     </row>
-    <row r="1204" spans="1:23">
+    <row r="1204" spans="1:23" ht="13.2">
       <c r="A1204" s="19"/>
       <c r="E1204" s="7"/>
       <c r="I1204" s="19"/>
@@ -23615,7 +23710,7 @@
       <c r="V1204" s="31"/>
       <c r="W1204" s="19"/>
     </row>
-    <row r="1205" spans="1:23">
+    <row r="1205" spans="1:23" ht="13.2">
       <c r="A1205" s="19"/>
       <c r="E1205" s="7"/>
       <c r="I1205" s="19"/>
@@ -23630,7 +23725,7 @@
       <c r="V1205" s="31"/>
       <c r="W1205" s="19"/>
     </row>
-    <row r="1206" spans="1:23">
+    <row r="1206" spans="1:23" ht="13.2">
       <c r="A1206" s="19"/>
       <c r="E1206" s="7"/>
       <c r="I1206" s="19"/>
@@ -23645,7 +23740,7 @@
       <c r="V1206" s="31"/>
       <c r="W1206" s="19"/>
     </row>
-    <row r="1207" spans="1:23">
+    <row r="1207" spans="1:23" ht="13.2">
       <c r="A1207" s="19"/>
       <c r="E1207" s="7"/>
       <c r="I1207" s="19"/>
@@ -23660,7 +23755,7 @@
       <c r="V1207" s="31"/>
       <c r="W1207" s="19"/>
     </row>
-    <row r="1208" spans="1:23">
+    <row r="1208" spans="1:23" ht="13.2">
       <c r="A1208" s="19"/>
       <c r="E1208" s="7"/>
       <c r="I1208" s="19"/>
@@ -23675,7 +23770,7 @@
       <c r="V1208" s="31"/>
       <c r="W1208" s="19"/>
     </row>
-    <row r="1209" spans="1:23">
+    <row r="1209" spans="1:23" ht="13.2">
       <c r="A1209" s="19"/>
       <c r="E1209" s="7"/>
       <c r="I1209" s="19"/>
@@ -23690,7 +23785,7 @@
       <c r="V1209" s="31"/>
       <c r="W1209" s="19"/>
     </row>
-    <row r="1210" spans="1:23">
+    <row r="1210" spans="1:23" ht="13.2">
       <c r="A1210" s="19"/>
       <c r="E1210" s="7"/>
       <c r="I1210" s="19"/>
@@ -23705,7 +23800,7 @@
       <c r="V1210" s="31"/>
       <c r="W1210" s="19"/>
     </row>
-    <row r="1211" spans="1:23">
+    <row r="1211" spans="1:23" ht="13.2">
       <c r="A1211" s="19"/>
       <c r="E1211" s="7"/>
       <c r="I1211" s="19"/>
@@ -23720,7 +23815,7 @@
       <c r="V1211" s="31"/>
       <c r="W1211" s="19"/>
     </row>
-    <row r="1212" spans="1:23">
+    <row r="1212" spans="1:23" ht="13.2">
       <c r="A1212" s="19"/>
       <c r="E1212" s="7"/>
       <c r="I1212" s="19"/>
@@ -23735,7 +23830,7 @@
       <c r="V1212" s="31"/>
       <c r="W1212" s="19"/>
     </row>
-    <row r="1213" spans="1:23">
+    <row r="1213" spans="1:23" ht="13.2">
       <c r="A1213" s="19"/>
       <c r="E1213" s="7"/>
       <c r="I1213" s="19"/>
@@ -23750,7 +23845,7 @@
       <c r="V1213" s="31"/>
       <c r="W1213" s="19"/>
     </row>
-    <row r="1214" spans="1:23">
+    <row r="1214" spans="1:23" ht="13.2">
       <c r="A1214" s="19"/>
       <c r="E1214" s="7"/>
       <c r="I1214" s="19"/>
@@ -23765,7 +23860,7 @@
       <c r="V1214" s="31"/>
       <c r="W1214" s="19"/>
     </row>
-    <row r="1215" spans="1:23">
+    <row r="1215" spans="1:23" ht="13.2">
       <c r="A1215" s="19"/>
       <c r="E1215" s="7"/>
       <c r="I1215" s="19"/>
@@ -23780,7 +23875,7 @@
       <c r="V1215" s="31"/>
       <c r="W1215" s="19"/>
     </row>
-    <row r="1216" spans="1:23">
+    <row r="1216" spans="1:23" ht="13.2">
       <c r="A1216" s="19"/>
       <c r="E1216" s="7"/>
       <c r="I1216" s="19"/>
@@ -23795,7 +23890,7 @@
       <c r="V1216" s="31"/>
       <c r="W1216" s="19"/>
     </row>
-    <row r="1217" spans="1:23">
+    <row r="1217" spans="1:23" ht="13.2">
       <c r="A1217" s="19"/>
       <c r="E1217" s="7"/>
       <c r="I1217" s="19"/>
@@ -23810,7 +23905,7 @@
       <c r="V1217" s="31"/>
       <c r="W1217" s="19"/>
     </row>
-    <row r="1218" spans="1:23">
+    <row r="1218" spans="1:23" ht="13.2">
       <c r="A1218" s="19"/>
       <c r="E1218" s="7"/>
       <c r="I1218" s="19"/>
@@ -23825,7 +23920,7 @@
       <c r="V1218" s="31"/>
       <c r="W1218" s="19"/>
     </row>
-    <row r="1219" spans="1:23">
+    <row r="1219" spans="1:23" ht="13.2">
       <c r="A1219" s="19"/>
       <c r="E1219" s="7"/>
       <c r="I1219" s="19"/>
@@ -23840,7 +23935,7 @@
       <c r="V1219" s="31"/>
       <c r="W1219" s="19"/>
     </row>
-    <row r="1220" spans="1:23">
+    <row r="1220" spans="1:23" ht="13.2">
       <c r="A1220" s="19"/>
       <c r="E1220" s="7"/>
       <c r="I1220" s="19"/>
@@ -23855,7 +23950,7 @@
       <c r="V1220" s="31"/>
       <c r="W1220" s="19"/>
     </row>
-    <row r="1221" spans="1:23">
+    <row r="1221" spans="1:23" ht="13.2">
       <c r="A1221" s="19"/>
       <c r="E1221" s="7"/>
       <c r="I1221" s="19"/>
@@ -23870,7 +23965,7 @@
       <c r="V1221" s="31"/>
       <c r="W1221" s="19"/>
     </row>
-    <row r="1222" spans="1:23">
+    <row r="1222" spans="1:23" ht="13.2">
       <c r="A1222" s="19"/>
       <c r="E1222" s="7"/>
       <c r="I1222" s="19"/>
@@ -23885,7 +23980,7 @@
       <c r="V1222" s="31"/>
       <c r="W1222" s="19"/>
     </row>
-    <row r="1223" spans="1:23">
+    <row r="1223" spans="1:23" ht="13.2">
       <c r="A1223" s="19"/>
       <c r="E1223" s="7"/>
       <c r="I1223" s="19"/>
@@ -23900,7 +23995,7 @@
       <c r="V1223" s="31"/>
       <c r="W1223" s="19"/>
     </row>
-    <row r="1224" spans="1:23">
+    <row r="1224" spans="1:23" ht="13.2">
       <c r="A1224" s="19"/>
       <c r="E1224" s="7"/>
       <c r="I1224" s="19"/>
@@ -23915,7 +24010,7 @@
       <c r="V1224" s="31"/>
       <c r="W1224" s="19"/>
     </row>
-    <row r="1225" spans="1:23">
+    <row r="1225" spans="1:23" ht="13.2">
       <c r="A1225" s="19"/>
       <c r="E1225" s="7"/>
       <c r="I1225" s="19"/>
@@ -23930,7 +24025,7 @@
       <c r="V1225" s="31"/>
       <c r="W1225" s="19"/>
     </row>
-    <row r="1226" spans="1:23">
+    <row r="1226" spans="1:23" ht="13.2">
       <c r="A1226" s="19"/>
       <c r="E1226" s="7"/>
       <c r="I1226" s="19"/>
@@ -23945,7 +24040,7 @@
       <c r="V1226" s="31"/>
       <c r="W1226" s="19"/>
     </row>
-    <row r="1227" spans="1:23">
+    <row r="1227" spans="1:23" ht="13.2">
       <c r="A1227" s="19"/>
       <c r="E1227" s="7"/>
       <c r="I1227" s="19"/>
@@ -23960,7 +24055,7 @@
       <c r="V1227" s="31"/>
       <c r="W1227" s="19"/>
     </row>
-    <row r="1228" spans="1:23">
+    <row r="1228" spans="1:23" ht="13.2">
       <c r="A1228" s="19"/>
       <c r="E1228" s="7"/>
       <c r="I1228" s="19"/>
@@ -23975,7 +24070,7 @@
       <c r="V1228" s="31"/>
       <c r="W1228" s="19"/>
     </row>
-    <row r="1229" spans="1:23">
+    <row r="1229" spans="1:23" ht="13.2">
       <c r="A1229" s="19"/>
       <c r="E1229" s="7"/>
       <c r="I1229" s="19"/>
@@ -23990,7 +24085,7 @@
       <c r="V1229" s="31"/>
       <c r="W1229" s="19"/>
     </row>
-    <row r="1230" spans="1:23">
+    <row r="1230" spans="1:23" ht="13.2">
       <c r="A1230" s="19"/>
       <c r="E1230" s="7"/>
       <c r="I1230" s="19"/>
@@ -24005,7 +24100,7 @@
       <c r="V1230" s="31"/>
       <c r="W1230" s="19"/>
     </row>
-    <row r="1231" spans="1:23">
+    <row r="1231" spans="1:23" ht="13.2">
       <c r="A1231" s="19"/>
       <c r="E1231" s="7"/>
       <c r="I1231" s="19"/>
@@ -24020,7 +24115,7 @@
       <c r="V1231" s="31"/>
       <c r="W1231" s="19"/>
     </row>
-    <row r="1232" spans="1:23">
+    <row r="1232" spans="1:23" ht="13.2">
       <c r="A1232" s="19"/>
       <c r="E1232" s="7"/>
       <c r="I1232" s="19"/>
@@ -24035,7 +24130,7 @@
       <c r="V1232" s="31"/>
       <c r="W1232" s="19"/>
     </row>
-    <row r="1233" spans="1:23">
+    <row r="1233" spans="1:23" ht="13.2">
       <c r="A1233" s="19"/>
       <c r="E1233" s="7"/>
       <c r="I1233" s="19"/>
@@ -24050,7 +24145,7 @@
       <c r="V1233" s="31"/>
       <c r="W1233" s="19"/>
     </row>
-    <row r="1234" spans="1:23">
+    <row r="1234" spans="1:23" ht="13.2">
       <c r="A1234" s="19"/>
       <c r="E1234" s="7"/>
       <c r="I1234" s="19"/>
@@ -24065,7 +24160,7 @@
       <c r="V1234" s="31"/>
       <c r="W1234" s="19"/>
     </row>
-    <row r="1235" spans="1:23">
+    <row r="1235" spans="1:23" ht="13.2">
       <c r="A1235" s="19"/>
       <c r="E1235" s="7"/>
       <c r="I1235" s="19"/>
@@ -24080,7 +24175,7 @@
       <c r="V1235" s="31"/>
       <c r="W1235" s="19"/>
     </row>
-    <row r="1236" spans="1:23">
+    <row r="1236" spans="1:23" ht="13.2">
       <c r="A1236" s="19"/>
       <c r="E1236" s="7"/>
       <c r="I1236" s="19"/>
@@ -24095,7 +24190,7 @@
       <c r="V1236" s="31"/>
       <c r="W1236" s="19"/>
     </row>
-    <row r="1237" spans="1:23">
+    <row r="1237" spans="1:23" ht="13.2">
       <c r="A1237" s="19"/>
       <c r="E1237" s="7"/>
       <c r="I1237" s="19"/>
@@ -24110,7 +24205,7 @@
       <c r="V1237" s="31"/>
       <c r="W1237" s="19"/>
     </row>
-    <row r="1238" spans="1:23">
+    <row r="1238" spans="1:23" ht="13.2">
       <c r="A1238" s="19"/>
       <c r="E1238" s="7"/>
       <c r="I1238" s="19"/>
@@ -24177,6 +24272,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>